--- a/data/trans_camb/P31_2_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P31_2_R-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,05</t>
+          <t>-4,23</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,92</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>-24,57</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,68</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,29</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>-4,65</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-2,65</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-1,6</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-13,6</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,93; 18,86</t>
+          <t>-26,12; 16,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 20,81</t>
+          <t>-22,73; 18,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 13,52</t>
+          <t>-49,93; -1,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 13,51</t>
+          <t>-16,7; 15,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 11,2</t>
+          <t>-17,78; 14,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 12,56</t>
+          <t>-21,06; 11,16</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-14,68; 10,85</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-13,14; 10,91</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-28,76; -1,25</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>-5,05%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>-2,63%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>-29,33%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>-1,47%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>-1,29%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>-5,6%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-3,17%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-1,92%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-16,31%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,1; 26,98</t>
+          <t>-28,18; 21,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 29,32</t>
+          <t>-24,88; 26,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 16,84</t>
+          <t>-54,1; -1,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 17,13</t>
+          <t>-18,64; 20,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 14,47</t>
+          <t>-19,48; 19,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 15,5</t>
+          <t>-24,01; 14,56</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-16,98; 13,83</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-14,83; 14,29</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-32,43; -1,49</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-9,25</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-5,26</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,97</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,43</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-5,47</t>
+          <t>3,84</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>-6,19</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-0,08</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1,35</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,23</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-21,01; 0,97</t>
+          <t>-12,75; 10,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,79; 4,65</t>
+          <t>-15,34; 9,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,65; 8,61</t>
+          <t>-8,09; 14,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 13,08</t>
+          <t>-15,91; 12,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,36; 1,73</t>
+          <t>-8,19; 16,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 5,73</t>
+          <t>-21,45; 8,65</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-9,15; 8,62</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-6,55; 10,67</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-8,72; 9,92</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-9,98%</t>
+          <t>0,07%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-5,68%</t>
+          <t>-1,44%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,3%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>-0,8%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-6,13%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-0,91%</t>
+          <t>-7,35%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-0,09%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1,53%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,26%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-22,88; 0,94</t>
+          <t>-13,26; 13,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-17,61; 5,26</t>
+          <t>-16,17; 11,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-14,02; 10,89</t>
+          <t>-8,41; 17,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 16,48</t>
+          <t>-17,8; 15,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-14,7; 2,01</t>
+          <t>-8,99; 21,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 6,67</t>
+          <t>-24,11; 11,04</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-10,15; 10,43</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-7,18; 12,85</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-9,57; 12,04</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,02</t>
+          <t>-9,4</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,62</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,56</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>13,42</t>
+          <t>5,66</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>14,76</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,7</t>
+          <t>10,71</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,12</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10,0</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6,17</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,28; 4,27</t>
+          <t>-21,41; 1,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,66; 5,06</t>
+          <t>-7,96; 11,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 13,89</t>
+          <t>-12,16; 7,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,54; 21,41</t>
+          <t>-5,1; 16,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 7,5</t>
+          <t>6,02; 24,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 11,38</t>
+          <t>1,5; 20,22</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-8,32; 7,37</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>3,35; 16,67</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-1,22; 13,05</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-3,25%</t>
+          <t>-10,23%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-2,82%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,85%</t>
+          <t>-1,31%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>16,55%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>18,41%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>13,36%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-0,14%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>11,81%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>7,29%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-10,75; 4,88</t>
+          <t>-22,94; 2,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-16,29; 5,53</t>
+          <t>-8,16; 13,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 18,22</t>
+          <t>-12,86; 8,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,51; 28,55</t>
+          <t>-5,81; 22,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 9,0</t>
+          <t>6,89; 32,7</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 13,63</t>
+          <t>1,82; 27,52</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-9,63; 9,33</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>3,73; 20,71</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-1,26; 16,66</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,34</t>
+          <t>7,31</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>4,15</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,81</t>
+          <t>-5,49</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,01</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,61</t>
+          <t>8,13</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,95</t>
+          <t>5,55</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>4,53</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>6,22</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 11,25</t>
+          <t>-2,64; 17,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 9,92</t>
+          <t>-7,63; 14,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 12,47</t>
+          <t>-18,04; 5,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 14,9</t>
+          <t>-8,0; 11,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 8,83</t>
+          <t>0,04; 17,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 10,64</t>
+          <t>-3,71; 14,96</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-2,86; 11,87</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-0,52; 13,08</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-7,5; 7,92</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>8,76%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>-6,58%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>9,59%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>6,55%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>5,39%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>7,39%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,11%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 13,59</t>
+          <t>-2,87; 23,06</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 11,98</t>
+          <t>-8,45; 18,43</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 16,11</t>
+          <t>-20,46; 7,71</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 19,33</t>
+          <t>-8,86; 13,74</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 10,81</t>
+          <t>0,26; 21,94</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 13,13</t>
+          <t>-4,01; 19,35</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-3,2; 14,91</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-0,38; 16,72</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-8,61; 9,63</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>-1,97</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>8,05</t>
+          <t>6,96</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>3,27</t>
+          <t>10,29</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>4,99</t>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-0,6</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>5,19</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>6,51</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-10,99; 9,1</t>
+          <t>-14,07; 10,9</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,4; 15,95</t>
+          <t>-2,89; 18,26</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 11,45</t>
+          <t>1,71; 21,56</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 10,43</t>
+          <t>-11,09; 15,03</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 7,53</t>
+          <t>-10,02; 14,75</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 11,19</t>
+          <t>-11,27; 14,61</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-9,52; 8,19</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-3,09; 13,33</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-0,97; 13,91</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-0,95%</t>
+          <t>-2,29%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>9,31%</t>
+          <t>8,1%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>11,98%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>2,31%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-0,7%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>6,03%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>7,56%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-12,09; 10,93</t>
+          <t>-15,71; 13,63</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>1,54; 20,33</t>
+          <t>-3,17; 23,73</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 14,1</t>
+          <t>1,87; 28,59</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 12,56</t>
+          <t>-12,11; 19,14</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 9,01</t>
+          <t>-10,72; 18,89</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 13,5</t>
+          <t>-12,07; 18,49</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-10,5; 10,1</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-3,44; 16,63</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-0,87; 17,33</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>15,05</t>
+          <t>20,78</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>12,9</t>
+          <t>12,56</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2,97</t>
+          <t>9,69</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>3,43</t>
+          <t>-3,71</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>8,26</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>7,68</t>
+          <t>1,05</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>7,31</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>5,71</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>5,16</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>3,36; 28,01</t>
+          <t>6,77; 39,9</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1,71; 25,73</t>
+          <t>-3,77; 31,39</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 12,97</t>
+          <t>-8,86; 26,73</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 13,66</t>
+          <t>-22,5; 10,03</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 16,13</t>
+          <t>-14,21; 13,34</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,27; 15,64</t>
+          <t>-13,3; 15,4</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-4,11; 17,68</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-5,54; 17,1</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-6,35; 17,16</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>20,14%</t>
+          <t>28,95%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>17,26%</t>
+          <t>17,5%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>13,5%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>-4,26%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>1,2%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>9,11%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>7,11%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>6,43%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>4,22; 43,31</t>
+          <t>8,44; 72,53</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>2,28; 39,99</t>
+          <t>-4,38; 56,28</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 16,1</t>
+          <t>-10,37; 45,7</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 16,98</t>
+          <t>-24,26; 12,02</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 21,17</t>
+          <t>-15,35; 16,73</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>0,33; 20,49</t>
+          <t>-14,61; 20,07</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>-4,61; 23,89</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>-6,6; 23,56</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-6,96; 23,66</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>3,18</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>5,95</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>6,11</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>4,33</t>
+          <t>2,76</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>1,37</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>4,73</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>1,17</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 4,85</t>
+          <t>-4,05; 6,88</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 6,9</t>
+          <t>-2,08; 8,44</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 6,78</t>
+          <t>-6,15; 5,59</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>2,23; 9,54</t>
+          <t>-4,29; 6,62</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 4,78</t>
+          <t>1,35; 10,73</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>1,37; 7,04</t>
+          <t>-2,55; 7,86</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-2,73; 5,09</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>1,33; 8,52</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-2,99; 4,86</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
+          <t>-0,69%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>1,56%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>7,29%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
           <t>3,3%</t>
         </is>
       </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>7,05%</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="inlineStr">
-        <is>
-          <t>2,21%</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>5,06%</t>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>1,62%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>5,58%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>1,38%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 5,74</t>
+          <t>-4,57; 8,39</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 8,13</t>
+          <t>-2,23; 10,3</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 8,19</t>
+          <t>-7,03; 6,8</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>2,6; 11,66</t>
+          <t>-4,96; 8,18</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 5,68</t>
+          <t>1,61; 13,37</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>1,6; 8,38</t>
+          <t>-2,99; 9,63</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-3,17; 6,09</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>1,52; 10,27</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-3,43; 5,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
